--- a/ExcelUnivWork1/dataset-example.xlsx
+++ b/ExcelUnivWork1/dataset-example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninja/ExcelUnivWork1/ExcelUnivWork1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4343E8F-317D-1743-A80A-F350FB877E32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09043A8C-80A5-E749-99EE-3049D77AE0A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28620" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2553,7 +2553,7 @@
   <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ExcelUnivWork1/dataset-example.xlsx
+++ b/ExcelUnivWork1/dataset-example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninja/ExcelUnivWork1/ExcelUnivWork1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09043A8C-80A5-E749-99EE-3049D77AE0A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1544E9-7829-2F40-A3C3-BC6E00CC011D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28620" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>i (for t0)</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>x(t) = v0 * cos(k*t)</t>
   </si>
   <si>
     <t>x0_norm</t>
@@ -245,10 +242,10 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2553,7 +2550,7 @@
   <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A10" sqref="A10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2603,7 +2600,7 @@
         <v>9</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S1" s="9"/>
       <c r="T1" s="12" t="s">
@@ -2622,7 +2619,7 @@
         <v>14</v>
       </c>
       <c r="Y1" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z1" s="12" t="s">
         <v>1</v>
@@ -3149,10 +3146,10 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="18">
+      <c r="A8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="17">
         <v>0.85</v>
       </c>
       <c r="F8" s="6">
@@ -3307,12 +3304,10 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="F10" s="6">
         <v>8</v>
       </c>
@@ -3320,7 +3315,7 @@
         <v>0.1</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" ref="H4:H51" si="7">G10*10</f>
+        <f t="shared" ref="H10:H51" si="7">G10*10</f>
         <v>1</v>
       </c>
       <c r="I10" s="7">
@@ -3389,10 +3384,10 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="F11" s="6">
         <v>9</v>
       </c>
@@ -6562,25 +6557,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -8104,25 +8099,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -9454,12 +9449,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="dd383aa0-a67e-48ce-a2fa-46b50b91e3f3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9589,17 +9583,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="dd383aa0-a67e-48ce-a2fa-46b50b91e3f3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E962B94-33B6-4B04-8BCC-9AC163876936}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7843FE6-CCB6-4FEC-9A92-6749CDFB1A1E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dd383aa0-a67e-48ce-a2fa-46b50b91e3f3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9623,11 +9620,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7843FE6-CCB6-4FEC-9A92-6749CDFB1A1E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E962B94-33B6-4B04-8BCC-9AC163876936}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dd383aa0-a67e-48ce-a2fa-46b50b91e3f3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>